--- a/DM/MasterPlot.xlsx
+++ b/DM/MasterPlot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Phase</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Getting Stuff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sea Battle, introduce aquatic races, shows off sahaugins, rumors of the main enemy? Welcome to Saltmarsh</t>
+    <t xml:space="preserve">Sea Battle, introduce ghost pirates, shows off sahaugins, rumors of the main enemy? Welcome to Saltmarsh</t>
   </si>
   <si>
     <t xml:space="preserve">Establish Setting and Situation, Getting the information</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Haunted House</t>
   </si>
   <si>
-    <t xml:space="preserve">Establish Sahaguin Incursion</t>
+    <t xml:space="preserve">Establish Sahaguin Incursion, Introduce the Black Tide</t>
   </si>
   <si>
     <t xml:space="preserve">Building Stuff</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Building relationships and allies</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquatic Adventure/PCBackground, Side Quest</t>
+    <t xml:space="preserve">Aquatic Adventure/PCBackground, Side Quest, The Black Tide</t>
   </si>
   <si>
     <t xml:space="preserve">Pirate Alliance?</t>
@@ -97,22 +97,64 @@
     <t>Who?</t>
   </si>
   <si>
-    <t xml:space="preserve">Sahagin King: Triton </t>
+    <t xml:space="preserve">Sahaugin Baron Takarak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltmarsh Taken Over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Tide Necromantic Water Current that forms every 100 yrs and lasts for 60 days?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allied Races (Merfolk, Aquatic Elves, Sea Princes, Lizardfolk, Humans, Tritons, Lycantha, Crab People)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undead Navy (Maybe include a notable Pirate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PCs</t>
   </si>
   <si>
     <t>What?</t>
   </si>
   <si>
+    <t xml:space="preserve">Can control the black tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal Human Harbor/Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collectively stronger than undead navy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large armed pirate ships all across the ocean</t>
+  </si>
+  <si>
     <t>Where?</t>
   </si>
   <si>
+    <t xml:space="preserve">Establishing Remote Base of Operations for the Sauhagin From the book)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confluence of All defending Races Terrority. Salt marsh is in the middle of all their kingdoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCs main base will be their ship (The Ghost Ship)</t>
+  </si>
+  <si>
+    <t>When?</t>
+  </si>
+  <si>
     <t>Why?</t>
   </si>
   <si>
+    <t xml:space="preserve">The Kingdom of Keoland is what the Sahaugin consider their birthright. They were driven out from that region many centuries ago and still hold this grudge</t>
+  </si>
+  <si>
     <t>How?</t>
   </si>
   <si>
-    <t>THEME</t>
+    <t>Theme</t>
   </si>
   <si>
     <t>Expect?</t>
@@ -226,7 +268,7 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,15 +287,19 @@
     <xf fontId="2" fillId="7" borderId="1" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="6" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,12 +998,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.28125"/>
+    <col customWidth="1" min="1" max="1" width="12.00390625"/>
     <col customWidth="1" min="2" max="2" width="25.57421875"/>
     <col customWidth="1" min="3" max="3" width="22.8515625"/>
-    <col customWidth="1" min="4" max="4" width="24.28125"/>
-    <col customWidth="1" min="5" max="5" width="14.57421875"/>
-    <col customWidth="1" min="6" max="6" width="14.28125"/>
+    <col customWidth="1" min="4" max="4" width="78.421875"/>
+    <col customWidth="1" min="5" max="5" width="24.7109375"/>
+    <col customWidth="1" min="6" max="6" width="23.8515625"/>
     <col customWidth="1" min="7" max="7" width="20.140625"/>
     <col min="8" max="16384" width="9.140625"/>
   </cols>
@@ -966,15 +1012,15 @@
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
@@ -994,54 +1040,169 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" ht="102.75" customHeight="1">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="43.5" customHeight="1">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
+        <v>33</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" ht="72" customHeight="1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
+      <c r="A6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" ht="108" customHeight="1">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25"/>
+        <v>43</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
